--- a/Parameters/pipeline_parameters.xlsx
+++ b/Parameters/pipeline_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/mans3904_ox_ac_uk/Documents/DPhil/GEOH2-private/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ls2823_ic_ac_uk/Documents/0_Thesis/0relevant_repositories/GeoH2 Case Study Laos/Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0F17CB98-0437-854B-8C4B-CA3D4C7F5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{781A8BF8-3C71-41AD-8549-C21EB804F0B9}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{0F17CB98-0437-854B-8C4B-CA3D4C7F5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0ADFCF-59A7-43DA-81B0-9D2C8330835C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{94028C1A-34CC-4B53-868B-8FD234C28ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -59,12 +59,6 @@
     <t>Electricity demand (kWh/kg*km)</t>
   </si>
   <si>
-    <t>Pipeline capex (euros)</t>
-  </si>
-  <si>
-    <t>Compressor capex (euros)</t>
-  </si>
-  <si>
     <t>Maximum capacity (GW)</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>Small pipeline max capcity (GW)</t>
+  </si>
+  <si>
+    <t>Pipeline capex (USD)</t>
+  </si>
+  <si>
+    <t>Compressor capex (USD)</t>
   </si>
 </sst>
 </file>
@@ -130,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0432B26-F3F0-43E1-A0D6-6197719E0B28}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +484,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>13</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4.7</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1.2</v>
@@ -516,12 +516,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -531,25 +531,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f xml:space="preserve"> 2.8 * 1000000</f>
-        <v>2800000</v>
+        <v>2950640</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <f>0.62 * 1000000</f>
-        <v>620000</v>
+        <v>653356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -565,7 +563,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,25 +578,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f xml:space="preserve"> 2.2 * 1000000</f>
-        <v>2200000</v>
+        <v>2318360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <f>0.31 * 1000000</f>
-        <v>310000</v>
+        <v>326678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4.2</v>
@@ -613,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13374701-BB04-4EB3-9B4E-2501A6D51514}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,25 +625,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f>0.09 * 1000000</f>
-        <v>90000</v>
+        <v>94842</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <f>0.09 * 1000000</f>
-        <v>90000</v>
+        <v>94842</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.2</v>
